--- a/write-file/receipt.xlsx
+++ b/write-file/receipt.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="TH Sarabun New"/>
+      <name val="TH SarabunPSK"/>
       <b val="1"/>
       <sz val="14"/>
     </font>

--- a/write-file/receipt.xlsx
+++ b/write-file/receipt.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,8 +448,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="49" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="46" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
     <col width="44" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
@@ -461,7 +461,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>บริษัท บิ๊กซี ซูเปอร์เซ็นเตอร์ จำกัด (มหาชน)</t>
+          <t>บริษัท เอก-ชัย ดีสทริบิวชั่น ซิสเทม จำกัด</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr"/>
@@ -522,29 +522,25 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>8850718810529</t>
+          <t>08851932354110</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>เลย์ร็อคกุ้งเผาซีฟุ๊ด69ก (หน่วย:1ชิ้น)</t>
+          <t>9 ซันชิลแชมพู แดเมจริสโตร์ สม 60มล</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+          <t>20.000</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr"/>
       <c r="G3" s="1" t="inlineStr"/>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>20.00 บ</t>
         </is>
       </c>
     </row>
@@ -556,29 +552,25 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>6923655599009</t>
+          <t>06920890700610</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>ดินสอกด 0.5 G990 PK1 (หน่วย:1ชิ้น)</t>
+          <t>จูปาจุปส์ออริจินอล 9.5n.</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr"/>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+          <t>5.000</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr"/>
       <c r="G4" s="1" t="inlineStr"/>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>5.00 บ</t>
         </is>
       </c>
     </row>
@@ -590,47 +582,133 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>8852023664675</t>
+          <t>08850999321004</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>โก๋แก่หิมพานต์อบเกลือ 30ก.(หน่วย:1ชิ้น)</t>
+          <t>8 สิงห์น้าดื่ม 600มล.</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr"/>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+          <t>7.000</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr"/>
       <c r="G5" s="1" t="inlineStr"/>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>7.00 บ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ยอดเงินชำระ</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr"/>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>08935001723073</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>จูปาจุปส์ดิปแอนด์ลิค 9 ก.</t>
+        </is>
+      </c>
       <c r="D6" s="1" t="inlineStr"/>
-      <c r="E6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>7.000</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="inlineStr"/>
       <c r="G6" s="1" t="inlineStr"/>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>7.00 บ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>03046920029582</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>ลินค์ เอ็กเซอร์แลนซ์ดาร์ก 85% โภโก้35ก.</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>49.000</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr"/>
+      <c r="G7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>49.00 บ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>09556001027252</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>คิทแคทชอคโกแลตพรีเมียม 35n.</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr"/>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>28.000</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr"/>
+      <c r="G8" s="1" t="inlineStr"/>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>28.00 บ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ยอดเงินชำระ</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="1" t="inlineStr"/>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="inlineStr"/>
+      <c r="G9" s="1" t="inlineStr"/>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>116.00</t>
         </is>
       </c>
     </row>

--- a/write-file/receipt.xlsx
+++ b/write-file/receipt.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,20 +448,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="46" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="49" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="44" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="24" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>บริษัท เอก-ชัย ดีสทริบิวชั่น ซิสเทม จำกัด</t>
+          <t>บริษัท บิ๊กซี ซูเปอร์เซ็นเตอร์ จำกัด (มหาชน)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr"/>
@@ -471,6 +473,8 @@
       <c r="F1" s="1" t="inlineStr"/>
       <c r="G1" s="1" t="inlineStr"/>
       <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +517,8 @@
           <t>จำนวนเงิน (รวม VAT)</t>
         </is>
       </c>
+      <c r="I2" s="1" t="inlineStr"/>
+      <c r="J2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -522,25 +528,35 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>08851932354110</t>
+          <t>8850718810529</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>9 ซันชิลแชมพู แดเมจริสโตร์ สม 60มล</t>
+          <t>เลย์ร็อคกุ้งเผาซีฟุ๊ด69ก (หน่วย:1ชิ้น)</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>20.000</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr"/>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="G3" s="1" t="inlineStr"/>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>20.00 บ</t>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr"/>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
         </is>
       </c>
     </row>
@@ -552,27 +568,33 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>06920890700610</t>
+          <t>6923655599009</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>จูปาจุปส์ออริจินอล 9.5n.</t>
+          <t>ดินสอกด 0.5 G990 PK1 (หน่วย:1ชิ้น)</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr"/>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>5.000</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr"/>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="G4" s="1" t="inlineStr"/>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>5.00 บ</t>
-        </is>
-      </c>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr"/>
+      <c r="J4" s="1" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -582,135 +604,53 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>08850999321004</t>
+          <t>8852023664675</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>8 สิงห์น้าดื่ม 600มล.</t>
+          <t>โก๋แก่หิมพานต์อบเกลือ 30ก.(หน่วย:1ชิ้น)</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr"/>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>7.000</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr"/>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="G5" s="1" t="inlineStr"/>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>7.00 บ</t>
-        </is>
-      </c>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr"/>
+      <c r="J5" s="1" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>08935001723073</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>จูปาจุปส์ดิปแอนด์ลิค 9 ก.</t>
-        </is>
-      </c>
+          <t>ยอดเงินชำระ</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="1" t="inlineStr"/>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>7.000</t>
-        </is>
-      </c>
+      <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr"/>
       <c r="G6" s="1" t="inlineStr"/>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>7.00 บ</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>03046920029582</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>ลินค์ เอ็กเซอร์แลนซ์ดาร์ก 85% โภโก้35ก.</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr"/>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>49.000</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr"/>
-      <c r="G7" s="1" t="inlineStr"/>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>49.00 บ</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>09556001027252</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>คิทแคทชอคโกแลตพรีเมียม 35n.</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>28.000</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr"/>
-      <c r="G8" s="1" t="inlineStr"/>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>28.00 บ</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>ยอดเงินชำระ</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr"/>
-      <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="inlineStr"/>
-      <c r="G9" s="1" t="inlineStr"/>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>116.00</t>
-        </is>
-      </c>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr"/>
+      <c r="J6" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
